--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject30.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject30.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0</v>
+        <v>0.5594428681065966</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -239,7 +239,7 @@
         <v>0</v>
       </c>
       <c r="AL1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="0">
         <v>0</v>
@@ -263,7 +263,7 @@
         <v>0</v>
       </c>
       <c r="AT1" s="0">
-        <v>0</v>
+        <v>0.85451353174829359</v>
       </c>
       <c r="AU1" s="0">
         <v>0</v>
@@ -281,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.79946757167587235</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -355,7 +355,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="0">
-        <v>0</v>
+        <v>0.67711564685175674</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>0</v>
+        <v>0.53640313188255262</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="0">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="BN2" s="0">
-        <v>0</v>
+        <v>0.7748817911103496</v>
       </c>
       <c r="BO2" s="0">
         <v>0</v>
@@ -543,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.67457177978055505</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0</v>
+        <v>0.91872889951326431</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="0">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="BH3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.7854660439301222</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.96038056236032832</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="AB4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="0">
-        <v>1</v>
+        <v>0.62998242842128382</v>
       </c>
       <c r="AD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.99767016166859102</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>0</v>
+        <v>0.56601395586374892</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>0</v>
+        <v>0.98426777711845115</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0</v>
+        <v>0.77489007498136153</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="0">
-        <v>0</v>
+        <v>0.61057067015658573</v>
       </c>
       <c r="AJ5" s="0">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>0</v>
+        <v>0.83436593696662942</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>1</v>
+        <v>0.91462290492247567</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>0</v>
+        <v>0.73119119786431286</v>
       </c>
     </row>
     <row r="6">
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.66097276909272473</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.79951033914849612</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>0</v>
+        <v>0.85687921783224941</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="0">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0</v>
+        <v>0.86224428094188443</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.99986124680012889</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="0">
-        <v>0</v>
+        <v>0.7735864350450683</v>
       </c>
       <c r="N7" s="0">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="0">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>0</v>
+        <v>0.68432469465625345</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="0">
-        <v>0</v>
+        <v>0.85557399258470335</v>
       </c>
       <c r="AM7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="0">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="0">
-        <v>0</v>
+        <v>0.66020931384923642</v>
       </c>
       <c r="BB7" s="0">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.58279200987831214</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.56227693692189118</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
       </c>
       <c r="O8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>0</v>
+        <v>0.51938420456521961</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>0</v>
+        <v>0.98572163894179743</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.74286022442351096</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="0">
-        <v>0</v>
+        <v>0.57972272851408402</v>
       </c>
       <c r="AF9" s="0">
         <v>0</v>
@@ -1896,16 +1896,16 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="0">
-        <v>0</v>
+        <v>0.51621176070454777</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0</v>
+        <v>0.58063470970680986</v>
       </c>
       <c r="AR9" s="0">
-        <v>0</v>
+        <v>0.89243116086581742</v>
       </c>
       <c r="AS9" s="0">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="0">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>0.9209185062797145</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.91209338732343681</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>0</v>
+        <v>0.92309614443699117</v>
       </c>
       <c r="BH10" s="0">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.61553977132937976</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="0">
-        <v>0</v>
+        <v>0.95129112249702552</v>
       </c>
       <c r="V11" s="0">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0">
-        <v>0</v>
+        <v>0.79902478155355006</v>
       </c>
       <c r="Y11" s="0">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="0">
         <v>0</v>
@@ -2347,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>0</v>
+        <v>0.65914482529995388</v>
       </c>
       <c r="BC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="0">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0</v>
+        <v>0.68394093024111391</v>
       </c>
       <c r="BN11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>0</v>
+        <v>0.88657447921166499</v>
       </c>
       <c r="U12" s="0">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0">
-        <v>0</v>
+        <v>0.87936502856502019</v>
       </c>
       <c r="AD12" s="0">
         <v>0</v>
       </c>
       <c r="AE12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="0">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="AP12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="0">
-        <v>0</v>
+        <v>0.83497348120098924</v>
       </c>
       <c r="AR12" s="0">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="0">
-        <v>0</v>
+        <v>0.90399597197190928</v>
       </c>
       <c r="BJ12" s="0">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>0</v>
+        <v>0.52362076698584836</v>
       </c>
       <c r="H13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0</v>
+        <v>0.73366295165582995</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="0">
-        <v>0</v>
+        <v>0.90415118174142362</v>
       </c>
       <c r="AE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="0">
-        <v>0</v>
+        <v>0.8512305005329166</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="AO13" s="0">
-        <v>0</v>
+        <v>0.73349330745406849</v>
       </c>
       <c r="AP13" s="0">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="0">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.70076196208851782</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>0</v>
+        <v>0.75424122900834578</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="0">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.62642125144869376</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3072,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="U15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="0">
-        <v>0</v>
+        <v>0.91983171910528139</v>
       </c>
       <c r="AC15" s="0">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0</v>
+        <v>0.98260423454782975</v>
       </c>
       <c r="AK15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.85475630241420242</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>0</v>
+        <v>0.75779849286198941</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="AV15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>0</v>
+        <v>0.58619966225182929</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" s="0">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>0.761647890981206</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.65197902094619264</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3284,13 +3284,13 @@
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="0">
-        <v>0</v>
+        <v>0.61886903513726721</v>
       </c>
       <c r="Y16" s="0">
-        <v>1</v>
+        <v>0.63835134448091901</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.65212291684930968</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>0</v>
+        <v>0.94024735030654338</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>0</v>
+        <v>0.53649340592303774</v>
       </c>
       <c r="W17" s="0">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0">
-        <v>0</v>
+        <v>0.78526059527883219</v>
       </c>
       <c r="AB17" s="0">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="0">
-        <v>0</v>
+        <v>0.89564565608658175</v>
       </c>
       <c r="AJ17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="AF18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="0">
         <v>0</v>
       </c>
       <c r="AH18" s="0">
-        <v>0</v>
+        <v>0.50578478698279405</v>
       </c>
       <c r="AI18" s="0">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="0">
-        <v>0</v>
+        <v>0.90659650336568387</v>
       </c>
       <c r="AR18" s="0">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="BO18" s="0">
-        <v>0</v>
+        <v>0.68256458360431616</v>
       </c>
       <c r="BP18" s="0">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>0.55460443620975663</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="0">
-        <v>0</v>
+        <v>0.8045236720153317</v>
       </c>
       <c r="AM19" s="0">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>0</v>
+        <v>0.83567564235507663</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>0</v>
+        <v>0.98863770270158757</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>0</v>
+        <v>0.57472600045747324</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0</v>
+        <v>0.79892409739539616</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.98021757537796494</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0</v>
+        <v>0.57495175121630238</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="BB20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="0">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="0">
-        <v>0</v>
+        <v>0.73843088020692949</v>
       </c>
       <c r="L21" s="0">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.7684051443667077</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.95683132950844207</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0</v>
+        <v>0.75428731755218403</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4490,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4502,19 +4502,19 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0</v>
+        <v>0.8812988910371754</v>
       </c>
       <c r="R22" s="0">
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0">
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.70786266509063467</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="0">
-        <v>0</v>
+        <v>0.8280832011947914</v>
       </c>
       <c r="AC22" s="0">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="0">
-        <v>0</v>
+        <v>0.66253896392606937</v>
       </c>
       <c r="AI22" s="0">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AV22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="0">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4741,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="AB23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>0</v>
+        <v>0.99717083778908677</v>
       </c>
       <c r="AD23" s="0">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="0">
-        <v>0</v>
+        <v>0.92825183052108562</v>
       </c>
       <c r="AS23" s="0">
         <v>0</v>
@@ -4893,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>0</v>
+        <v>0.65405760064810359</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="0">
-        <v>0</v>
+        <v>0.65668783186657231</v>
       </c>
       <c r="Q24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.98844893411273382</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0</v>
+        <v>0.71110803292334412</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -4992,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0</v>
+        <v>0.58647206045583122</v>
       </c>
       <c r="BM24" s="0">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>1</v>
+        <v>0.67964199681754478</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.77852899418856736</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5270,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="BO25" s="0">
-        <v>0</v>
+        <v>0.51597913014615049</v>
       </c>
       <c r="BP25" s="0">
-        <v>0</v>
+        <v>0.5942018008165455</v>
       </c>
     </row>
     <row r="26">
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
+        <v>0.7163759839400663</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="0">
-        <v>0</v>
+        <v>0.77690325155894213</v>
       </c>
       <c r="N26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.77677955687719402</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.56950186731533203</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5464,10 +5464,10 @@
         <v>0</v>
       </c>
       <c r="BK26" s="0">
-        <v>0</v>
+        <v>0.66549870692595747</v>
       </c>
       <c r="BL26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26" s="0">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0</v>
+        <v>0.83932829267111608</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.67684103875996482</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.83697965664719631</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>0</v>
+        <v>0.60391449022162846</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0</v>
+        <v>0.67578748838691249</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5696,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>0.89889192436004361</v>
       </c>
       <c r="D28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="0">
-        <v>0</v>
+        <v>0.95273849595910998</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="V28" s="0">
-        <v>0</v>
+        <v>0.76858469703932775</v>
       </c>
       <c r="W28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="0">
         <v>0</v>
@@ -5765,16 +5765,16 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.8214433155692944</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.61152370668525524</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.77047020849622161</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" s="0">
         <v>0</v>
@@ -5905,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="0">
-        <v>1</v>
+        <v>0.73961968254761024</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>0</v>
+        <v>0.72882064646154587</v>
       </c>
       <c r="M29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0</v>
+        <v>0.76651924374556102</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.71195039741797639</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="0">
-        <v>0</v>
+        <v>0.92869590575915062</v>
       </c>
       <c r="N30" s="0">
         <v>0</v>
@@ -6195,13 +6195,13 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
-        <v>0</v>
+        <v>0.54888571436331812</v>
       </c>
       <c r="AH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="0">
         <v>0</v>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="BP30" s="0">
-        <v>0</v>
+        <v>0.57336587213729384</v>
       </c>
     </row>
     <row r="31">
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>0.56681857606612285</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6326,25 +6326,25 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>0</v>
+        <v>0.83493081581645356</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
+        <v>0.75854062078424156</v>
       </c>
       <c r="J31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="0">
         <v>0</v>
       </c>
       <c r="L31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="0">
-        <v>0</v>
+        <v>0.89897609023478164</v>
       </c>
       <c r="AR31" s="0">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>0</v>
+        <v>0.73698475726541313</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0</v>
+        <v>0.80224821009275438</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="0">
-        <v>0</v>
+        <v>0.78327862421461758</v>
       </c>
       <c r="N32" s="0">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.95447145961468038</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.74867248069283554</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="BC32" s="0">
-        <v>0</v>
+        <v>0.54559790700052924</v>
       </c>
       <c r="BD32" s="0">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>0</v>
+        <v>0.70114952748056703</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6807,19 +6807,19 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>0</v>
+        <v>0.83069710996770896</v>
       </c>
       <c r="AE33" s="0">
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.86381673162430084</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>1</v>
+        <v>0.81266746171655491</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0</v>
+        <v>0.56711995849501384</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AX33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="0">
-        <v>0</v>
+        <v>0.96563542161211813</v>
       </c>
       <c r="S34" s="0">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="0">
-        <v>0</v>
+        <v>0.53077916621931975</v>
       </c>
       <c r="W34" s="0">
         <v>0</v>
@@ -7013,16 +7013,16 @@
         <v>0</v>
       </c>
       <c r="AD34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.75290438541887705</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>0</v>
+        <v>0.56158449439093938</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>0</v>
+        <v>0.72895339733481923</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7118,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
       </c>
       <c r="BO34" s="0">
-        <v>0</v>
+        <v>0.72093505963367366</v>
       </c>
       <c r="BP34" s="0">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="0">
-        <v>0</v>
+        <v>0.75622846018598522</v>
       </c>
       <c r="F35" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0</v>
+        <v>0.6006430703817317</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0</v>
+        <v>0.81948489227546162</v>
       </c>
       <c r="R35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>1</v>
+        <v>0.82009695356752044</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0</v>
+        <v>0.96439652469862225</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="0">
-        <v>0</v>
+        <v>0.52506826797862849</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7503,13 +7503,13 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
       </c>
       <c r="BF36" s="0">
-        <v>0</v>
+        <v>0.97411140518326811</v>
       </c>
       <c r="BG36" s="0">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0</v>
+        <v>0.69325575194619504</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7646,16 +7646,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.63548118982859014</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
@@ -7750,10 +7750,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>0</v>
+        <v>0.81891882381266312</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0">
-        <v>0</v>
+        <v>0.50953351121292234</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.70936651684473573</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,13 +7867,13 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0</v>
+        <v>0.69960098062270026</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7888,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="AU38" s="0">
-        <v>0</v>
+        <v>0.93991336991153607</v>
       </c>
       <c r="AV38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="BO38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>0.73798094802378755</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>0.95116383006754446</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8091,13 +8091,13 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>0</v>
+        <v>0.97710769482935811</v>
       </c>
       <c r="AU39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="0">
-        <v>0</v>
+        <v>0.86338588735076827</v>
       </c>
       <c r="AW39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0</v>
+        <v>0.96221443404876039</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="0">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.61358749734774098</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="0">
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>0</v>
+        <v>0.58809737193323097</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="BO40" s="0">
-        <v>0</v>
+        <v>0.78699129686302238</v>
       </c>
       <c r="BP40" s="0">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -8386,13 +8386,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="0">
         <v>0</v>
@@ -8404,19 +8404,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="0">
-        <v>0</v>
+        <v>0.53722208705149455</v>
       </c>
       <c r="N41" s="0">
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.83382787307189155</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>0</v>
+        <v>0.98787672571371665</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="0">
-        <v>0</v>
+        <v>0.9954368923565341</v>
       </c>
       <c r="J42" s="0">
         <v>0</v>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="0">
         <v>0</v>
@@ -8685,13 +8685,13 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0</v>
+        <v>0.85946912861694691</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.79890692932235974</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
+        <v>0.84438308184582833</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>0</v>
+        <v>0.65621209597234165</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>0</v>
+        <v>0.55952121237567864</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8870,13 +8870,13 @@
         <v>0</v>
       </c>
       <c r="AE43" s="0">
-        <v>0</v>
+        <v>0.91867442920570386</v>
       </c>
       <c r="AF43" s="0">
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>1</v>
+        <v>0.94296788592153435</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -9004,13 +9004,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
+        <v>0.75124039423860844</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9052,10 +9052,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>0</v>
+        <v>0.74002184820740302</v>
       </c>
       <c r="X44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>0</v>
+        <v>0.87599776208320601</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="BP44" s="0">
-        <v>0</v>
+        <v>0.58413632606198085</v>
       </c>
     </row>
     <row r="45">
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0</v>
+        <v>0.71383055757005176</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>0.75621404173576845</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AY45" s="0">
-        <v>0</v>
+        <v>0.83529871181646986</v>
       </c>
       <c r="AZ45" s="0">
         <v>0</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="BE45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF45" s="0">
         <v>0</v>
@@ -9393,18 +9393,18 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>0</v>
+        <v>0.82138335596470802</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0</v>
+        <v>0.61423595703819345</v>
       </c>
       <c r="B46" s="0">
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0</v>
+        <v>0.73032050435511708</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="0">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="0">
-        <v>0</v>
+        <v>0.86041615020814932</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>0</v>
+        <v>0.52114643578562347</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>0</v>
+        <v>0.55706231799549899</v>
       </c>
       <c r="BB46" s="0">
         <v>0</v>
@@ -9569,13 +9569,13 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>0</v>
+        <v>0.91610462359715228</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN46" s="0">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>0</v>
+        <v>0.94342761307774659</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9715,10 +9715,10 @@
         <v>0</v>
       </c>
       <c r="AL47" s="0">
-        <v>0</v>
+        <v>0.69748068258212914</v>
       </c>
       <c r="AM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="0">
         <v>0</v>
@@ -9921,10 +9921,10 @@
         <v>0</v>
       </c>
       <c r="AL48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="0">
-        <v>0</v>
+        <v>0.63556177034849104</v>
       </c>
       <c r="AN48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.89240112906684699</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0</v>
+        <v>0.70374450427887281</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0</v>
+        <v>0.98740947461809969</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="0">
-        <v>0</v>
+        <v>0.75145413689444929</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>0</v>
+        <v>0.7086815362681802</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AO49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10157,13 +10157,13 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.96084408328896798</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0</v>
+        <v>0.55069211883983527</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10276,13 +10276,13 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>0</v>
+        <v>0.59946865964095752</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.64719126396215809</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="0">
-        <v>1</v>
+        <v>0.94495948087254011</v>
       </c>
       <c r="BK50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="0">
-        <v>0</v>
+        <v>0.86284167399691225</v>
       </c>
       <c r="AT51" s="0">
         <v>0</v>
@@ -10581,13 +10581,13 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.999983191333915</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>0</v>
+        <v>0.57857934142384448</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.5756630604327575</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.81757281763774481</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="0">
-        <v>0</v>
+        <v>0.86323758470891288</v>
       </c>
       <c r="BF52" s="0">
         <v>0</v>
@@ -10814,13 +10814,13 @@
         <v>0</v>
       </c>
       <c r="BI52" s="0">
-        <v>0</v>
+        <v>0.52860746101088796</v>
       </c>
       <c r="BJ52" s="0">
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10858,13 +10858,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>0</v>
+        <v>0.67803763656493021</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
       </c>
       <c r="I53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10969,13 +10969,13 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0</v>
+        <v>0.7327467640307801</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.77244178718221457</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="BH53" s="0">
-        <v>0</v>
+        <v>0.79209201598502443</v>
       </c>
       <c r="BI53" s="0">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0">
-        <v>0</v>
+        <v>0.83906692404422678</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="0">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="0">
         <v>0</v>
@@ -11196,22 +11196,22 @@
         <v>0</v>
       </c>
       <c r="AY54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.74255674191546683</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.58391621351988277</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.71707774382006773</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI54" s="0">
-        <v>1</v>
+        <v>0.51189616639483915</v>
       </c>
       <c r="BJ54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>0</v>
+        <v>0.8764659519260547</v>
       </c>
       <c r="AG55" s="0">
         <v>0</v>
@@ -11360,13 +11360,13 @@
         <v>0</v>
       </c>
       <c r="AK55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="0">
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0</v>
+        <v>0.99359961855528933</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.96082296689349822</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="0">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="0">
-        <v>0</v>
+        <v>0.74658045101029469</v>
       </c>
       <c r="AO56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.74527184316339534</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="BG56" s="0">
-        <v>0</v>
+        <v>0.73906689216141519</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="0">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>0</v>
+        <v>0.70202665687250754</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="0">
         <v>0</v>
@@ -11814,10 +11814,10 @@
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>0</v>
+        <v>0.8449152479997647</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0</v>
+        <v>0.79477529199128349</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>0</v>
+        <v>0.73214400095062349</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11972,10 +11972,10 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>1</v>
+        <v>0.61758160524725936</v>
       </c>
       <c r="AJ58" s="0">
-        <v>0</v>
+        <v>0.59297735833813081</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -11999,22 +11999,22 @@
         <v>0</v>
       </c>
       <c r="AR58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS58" s="0">
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0</v>
+        <v>0.51317296837186155</v>
       </c>
       <c r="AW58" s="0">
-        <v>0</v>
+        <v>0.78419982153259316</v>
       </c>
       <c r="AX58" s="0">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>0</v>
+        <v>0.97148061386419116</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12241,10 +12241,10 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>0</v>
+        <v>0.93373880342443982</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.89948377148978964</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>1</v>
+        <v>0.78040552257581886</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>0</v>
+        <v>0.78002877394888226</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12438,10 +12438,10 @@
         <v>0</v>
       </c>
       <c r="BA60" s="0">
-        <v>0</v>
+        <v>0.69529416782295828</v>
       </c>
       <c r="BB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.81712138402185852</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0">
         <v>0</v>
@@ -12521,10 +12521,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="0">
-        <v>0</v>
+        <v>0.84147018193787038</v>
       </c>
       <c r="M61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0</v>
+        <v>0.53737734271244009</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12641,13 +12641,13 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="0">
-        <v>0</v>
+        <v>0.50673513118349067</v>
       </c>
       <c r="BA61" s="0">
         <v>0</v>
       </c>
       <c r="BB61" s="0">
-        <v>1</v>
+        <v>0.82719099110560335</v>
       </c>
       <c r="BC61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.59060153260016701</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>1</v>
+        <v>0.57230422903104927</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="0">
-        <v>1</v>
+        <v>0.96561040525056319</v>
       </c>
       <c r="AY62" s="0">
         <v>0</v>
@@ -12874,13 +12874,13 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.7530126066026559</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0</v>
+        <v>0.50052334651039576</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="0">
         <v>0</v>
@@ -13083,16 +13083,16 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.59350152977624271</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.59785668451273088</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>0</v>
+        <v>0.90232682372060857</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13175,19 +13175,19 @@
         <v>0</v>
       </c>
       <c r="X64" s="0">
-        <v>0</v>
+        <v>0.78514745061494673</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="0">
         <v>0</v>
       </c>
       <c r="AB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13292,13 +13292,13 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.70913650492442881</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13342,13 +13342,13 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0</v>
+        <v>0.63691388839951113</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>0</v>
+        <v>0.91103069238988599</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.90145830853643028</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13521,10 +13521,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="0">
-        <v>0</v>
+        <v>0.84121546814616921</v>
       </c>
       <c r="C66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>0</v>
+        <v>0.76631338939519</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>1</v>
+        <v>0.75881408028392183</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.67350717942993532</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="0">
-        <v>0</v>
+        <v>0.93858496085213849</v>
       </c>
       <c r="S67" s="0">
         <v>0</v>
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="0">
-        <v>0</v>
+        <v>0.92136783315988913</v>
       </c>
       <c r="Z67" s="0">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>0</v>
+        <v>0.53962449462977857</v>
       </c>
       <c r="AI67" s="0">
         <v>0</v>
@@ -13835,13 +13835,13 @@
         <v>0</v>
       </c>
       <c r="AL67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="0">
         <v>0</v>
       </c>
       <c r="AN67" s="0">
-        <v>0</v>
+        <v>0.96070273634188319</v>
       </c>
       <c r="AO67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0</v>
+        <v>0.52014452392856914</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0</v>
+        <v>0.94292314439312819</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="AD68" s="0">
-        <v>0</v>
+        <v>0.71810250477913184</v>
       </c>
       <c r="AE68" s="0">
         <v>0</v>
@@ -14059,10 +14059,10 @@
         <v>0</v>
       </c>
       <c r="AR68" s="0">
-        <v>0</v>
+        <v>0.62593988310469872</v>
       </c>
       <c r="AS68" s="0">
-        <v>0</v>
+        <v>0.9016767094988567</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject30.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject30.xlsx
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0.5594428681065966</v>
+        <v>0.761647890981206</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.53640313188255262</v>
+        <v>0.73798094802378755</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="BN2" s="0">
-        <v>0.7748817911103496</v>
+        <v>0.84121546814616921</v>
       </c>
       <c r="BO2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.67457177978055505</v>
+        <v>0.7854660439301222</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.96038056236032832</v>
+        <v>0.99767016166859102</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.62998242842128382</v>
+        <v>0.73961968254761024</v>
       </c>
       <c r="AD4" s="0">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>0.56601395586374892</v>
+        <v>0.9209185062797145</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="0">
-        <v>0.61057067015658573</v>
+        <v>0.75622846018598522</v>
       </c>
       <c r="AJ5" s="0">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.83436593696662942</v>
+        <v>0.98787672571371665</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.66097276909272473</v>
+        <v>0.99986124680012889</v>
       </c>
       <c r="H6" s="0">
         <v>0.79951033914849612</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0.86224428094188443</v>
+        <v>0.90232682372060857</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.68432469465625345</v>
+        <v>0.83493081581645356</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="0">
-        <v>0.66020931384923642</v>
+        <v>0.67803763656493021</v>
       </c>
       <c r="BB7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.58279200987831214</v>
+        <v>0.79951033914849612</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.56227693692189118</v>
+        <v>0.91209338732343681</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>0.51938420456521961</v>
+        <v>0.73032050435511708</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>0.98572163894179743</v>
+        <v>0.98740947461809969</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.57972272851408402</v>
+        <v>0.75854062078424156</v>
       </c>
       <c r="AF9" s="0">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="AP9" s="0">
-        <v>0.51621176070454777</v>
+        <v>0.9954368923565341</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0.58063470970680986</v>
+        <v>0.84438308184582833</v>
       </c>
       <c r="AR9" s="0">
         <v>0.89243116086581742</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>0.92309614443699117</v>
+        <v>0.97148061386419116</v>
       </c>
       <c r="BH10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.61553977132937976</v>
+        <v>0.74286022442351096</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>0.65914482529995388</v>
+        <v>0.83906692404422678</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>0.52362076698584836</v>
+        <v>0.7735864350450683</v>
       </c>
       <c r="H13" s="0">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.73366295165582995</v>
+        <v>0.77690325155894213</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.90415118174142362</v>
+        <v>0.92869590575915062</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.62642125144869376</v>
+        <v>0.65212291684930968</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.91983171910528139</v>
+        <v>0.95273849595910998</v>
       </c>
       <c r="AC15" s="0">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>0.58619966225182929</v>
+        <v>0.75145413689444929</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.65197902094619264</v>
+        <v>0.70076196208851782</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="X16" s="0">
-        <v>0.61886903513726721</v>
+        <v>0.65668783186657231</v>
       </c>
       <c r="Y16" s="0">
-        <v>0.63835134448091901</v>
+        <v>0.67964199681754478</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>0.53649340592303774</v>
+        <v>0.8812988910371754</v>
       </c>
       <c r="W17" s="0">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.78526059527883219</v>
+        <v>0.83932829267111608</v>
       </c>
       <c r="AB17" s="0">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="AH18" s="0">
-        <v>0.50578478698279405</v>
+        <v>0.96563542161211813</v>
       </c>
       <c r="AI18" s="0">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="BO18" s="0">
-        <v>0.68256458360431616</v>
+        <v>0.93858496085213849</v>
       </c>
       <c r="BP18" s="0">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>0.55460443620975663</v>
+        <v>0.98426777711845115</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>0.57472600045747324</v>
+        <v>0.88657447921166499</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.79892409739539616</v>
+        <v>0.94024735030654338</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0.57495175121630238</v>
+        <v>0.69325575194619504</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="0">
-        <v>0.73843088020692949</v>
+        <v>0.95129112249702552</v>
       </c>
       <c r="L21" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.7684051443667077</v>
+        <v>0.98021757537796494</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.75428731755218403</v>
+        <v>0.95116383006754446</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.70786266509063467</v>
+        <v>0.95683132950844207</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>0.65405760064810359</v>
+        <v>0.79902478155355006</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0.58647206045583122</v>
+        <v>0.78514745061494673</v>
       </c>
       <c r="BM24" s="0">
         <v>0</v>
@@ -5270,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="BO25" s="0">
-        <v>0.51597913014615049</v>
+        <v>0.92136783315988913</v>
       </c>
       <c r="BP25" s="0">
-        <v>0.5942018008165455</v>
+        <v>0.94292314439312819</v>
       </c>
     </row>
     <row r="26">
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0.7163759839400663</v>
+        <v>0.77489007498136153</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.77677955687719402</v>
+        <v>0.98844893411273382</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.56950186731533203</v>
+        <v>0.8214433155692944</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.67684103875996482</v>
+        <v>0.77852899418856736</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>0.60391449022162846</v>
+        <v>0.87599776208320601</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0.67578748838691249</v>
+        <v>0.70202665687250754</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0.89889192436004361</v>
+        <v>0.91872889951326431</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="0">
-        <v>0.76858469703932775</v>
+        <v>0.8280832011947914</v>
       </c>
       <c r="W28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0.8214433155692944</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.61152370668525524</v>
+        <v>0.83697965664719631</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>0.72882064646154587</v>
+        <v>0.87936502856502019</v>
       </c>
       <c r="M29" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0.76651924374556102</v>
+        <v>0.99717083778908677</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.71195039741797639</v>
+        <v>0.77047020849622161</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="0">
-        <v>0.54888571436331812</v>
+        <v>0.83069710996770896</v>
       </c>
       <c r="AH30" s="0">
         <v>0</v>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="BP30" s="0">
-        <v>0.57336587213729384</v>
+        <v>0.71810250477913184</v>
       </c>
     </row>
     <row r="31">
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>0.56681857606612285</v>
+        <v>0.67711564685175674</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="0">
-        <v>0.89897609023478164</v>
+        <v>0.91867442920570386</v>
       </c>
       <c r="AR31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0.80224821009275438</v>
+        <v>0.85687921783224941</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="0">
-        <v>0.78327862421461758</v>
+        <v>0.8512305005329166</v>
       </c>
       <c r="N32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.95447145961468038</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.74867248069283554</v>
+        <v>0.75290438541887705</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="BC32" s="0">
-        <v>0.54559790700052924</v>
+        <v>0.8764659519260547</v>
       </c>
       <c r="BD32" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>0.70114952748056703</v>
+        <v>0.71110803292334412</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.86381673162430084</v>
+        <v>0.95447145961468038</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>0.81266746171655491</v>
+        <v>0.94296788592153435</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0.56711995849501384</v>
+        <v>0.86041615020814932</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="0">
-        <v>0.53077916621931975</v>
+        <v>0.66253896392606937</v>
       </c>
       <c r="W34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>0.56158449439093938</v>
+        <v>0.94342761307774659</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0.6006430703817317</v>
+        <v>0.75424122900834578</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.81948489227546162</v>
+        <v>0.89564565608658175</v>
       </c>
       <c r="R35" s="0">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="0">
-        <v>0.52506826797862849</v>
+        <v>0.98260423454782975</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.63548118982859014</v>
+        <v>0.70936651684473573</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>0.81891882381266312</v>
+        <v>0.85557399258470335</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0">
-        <v>0.50953351121292234</v>
+        <v>0.8045236720153317</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0.69960098062270026</v>
+        <v>0.85946912861694691</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0.96221443404876039</v>
+        <v>0.99359961855528933</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.61358749734774098</v>
+        <v>0.79890692932235974</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>0.58809737193323097</v>
+        <v>0.74658045101029469</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="BO40" s="0">
-        <v>0.78699129686302238</v>
+        <v>0.96070273634188319</v>
       </c>
       <c r="BP40" s="0">
         <v>0</v>
@@ -8404,13 +8404,13 @@
         <v>0</v>
       </c>
       <c r="M41" s="0">
-        <v>0.53722208705149455</v>
+        <v>0.73349330745406849</v>
       </c>
       <c r="N41" s="0">
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0.83382787307189155</v>
+        <v>0.85475630241420242</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>0.65621209597234165</v>
+        <v>0.83497348120098924</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>0.55952121237567864</v>
+        <v>0.90659650336568387</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0.75124039423860844</v>
+        <v>0.89243116086581742</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>0.74002184820740302</v>
+        <v>0.92825183052108562</v>
       </c>
       <c r="X44" s="0">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="BP44" s="0">
-        <v>0.58413632606198085</v>
+        <v>0.62593988310469872</v>
       </c>
     </row>
     <row r="45">
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0.71383055757005176</v>
+        <v>0.75779849286198941</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0.75621404173576845</v>
+        <v>0.83567564235507663</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AY45" s="0">
-        <v>0.83529871181646986</v>
+        <v>0.86284167399691225</v>
       </c>
       <c r="AZ45" s="0">
         <v>0</v>
@@ -9393,12 +9393,12 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>0.82138335596470802</v>
+        <v>0.9016767094988567</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.61423595703819345</v>
+        <v>0.85451353174829359</v>
       </c>
       <c r="B46" s="0">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>0.52114643578562347</v>
+        <v>0.97710769482935811</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>0.55706231799549899</v>
+        <v>0.7327467640307801</v>
       </c>
       <c r="BB46" s="0">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="0">
-        <v>0.69748068258212914</v>
+        <v>0.93991336991153607</v>
       </c>
       <c r="AM47" s="0">
         <v>0</v>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="0">
-        <v>0.63556177034849104</v>
+        <v>0.86338588735076827</v>
       </c>
       <c r="AN48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.89240112906684699</v>
+        <v>0.96084408328896798</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>0.7086815362681802</v>
+        <v>0.73698475726541313</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0.55069211883983527</v>
+        <v>0.78419982153259316</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>0.59946865964095752</v>
+        <v>0.98863770270158757</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="0">
-        <v>0.94495948087254011</v>
+        <v>0.96561040525056319</v>
       </c>
       <c r="BK50" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>0.57857934142384448</v>
+        <v>0.8449152479997647</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.5756630604327575</v>
+        <v>0.64719126396215809</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.81757281763774481</v>
+        <v>0.999983191333915</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.74255674191546683</v>
+        <v>0.77244178718221457</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.58391621351988277</v>
+        <v>0.96082296689349822</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.71707774382006773</v>
+        <v>0.74527184316339534</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="BI54" s="0">
-        <v>0.51189616639483915</v>
+        <v>0.82719099110560335</v>
       </c>
       <c r="BJ54" s="0">
         <v>0</v>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="BG56" s="0">
-        <v>0.73906689216141519</v>
+        <v>0.93373880342443982</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0.8449152479997647</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0.79477529199128349</v>
+        <v>0.86323758470891288</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>0.73214400095062349</v>
+        <v>0.91103069238988599</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11972,10 +11972,10 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>0.61758160524725936</v>
+        <v>0.82009695356752044</v>
       </c>
       <c r="AJ58" s="0">
-        <v>0.59297735833813081</v>
+        <v>0.97411140518326811</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0.51317296837186155</v>
+        <v>0.70374450427887281</v>
       </c>
       <c r="AW58" s="0">
         <v>0.78419982153259316</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>0.78002877394888226</v>
+        <v>0.91610462359715228</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="0">
-        <v>0.69529416782295828</v>
+        <v>0.79209201598502443</v>
       </c>
       <c r="BB60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.81712138402185852</v>
+        <v>0.89948377148978964</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="0">
-        <v>0.84147018193787038</v>
+        <v>0.90399597197190928</v>
       </c>
       <c r="M61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0.53737734271244009</v>
+        <v>0.72895339733481923</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="0">
-        <v>0.50673513118349067</v>
+        <v>0.52860746101088796</v>
       </c>
       <c r="BA61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.59060153260016701</v>
+        <v>0.7530126066026559</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0.57230422903104927</v>
+        <v>0.91462290492247567</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>0.50052334651039576</v>
+        <v>0.66549870692595747</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.59350152977624271</v>
+        <v>0.70913650492442881</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.59785668451273088</v>
+        <v>0.90145830853643028</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0.63691388839951113</v>
+        <v>0.68394093024111391</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>0.76631338939519</v>
+        <v>0.96439652469862225</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>0.75881408028392183</v>
+        <v>0.78040552257581886</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.67350717942993532</v>
+        <v>0.79946757167587235</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>0.53962449462977857</v>
+        <v>0.72093505963367366</v>
       </c>
       <c r="AI67" s="0">
         <v>0</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0.52014452392856914</v>
+        <v>0.73119119786431286</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
